--- a/data/trans_dic/P10_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con Wifi</t>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>94,5%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,8; 98,43</t>
+          <t>80,6; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,84; 98,66</t>
+          <t>79,58; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,18; 98,66</t>
+          <t>86,5; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,44; 98,76</t>
+          <t>86,61; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,64; 97,83</t>
+          <t>86,69; 98,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,28; 97,99</t>
+          <t>86,39; 98,63</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,74%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>87,17%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,06; 98,53</t>
+          <t>53,56; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,29; 100,0</t>
+          <t>52,4; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,39; 96,01</t>
+          <t>76,64; 96,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,78; 95,97</t>
+          <t>75,36; 96,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,06; 95,39</t>
+          <t>62,97; 95,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,29; 95,97</t>
+          <t>61,93; 95,9</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>96,76%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,71; 96,14</t>
+          <t>84,26; 98,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,52; 96,73</t>
+          <t>84,08; 98,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,71; 99,25</t>
+          <t>93,17; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,94; 99,32</t>
+          <t>94,69; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,02; 96,79</t>
+          <t>91,99; 98,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,47; 97,37</t>
+          <t>92,68; 98,71</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>93,82%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,04; 96,3</t>
+          <t>82,67; 96,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,93; 97,01</t>
+          <t>84,93; 96,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,93; 95,26</t>
+          <t>89,86; 98,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,7; 94,57</t>
+          <t>89,85; 98,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,86; 94,95</t>
+          <t>88,88; 96,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,63; 94,66</t>
+          <t>89,44; 96,65</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>77,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78,65%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>80,77%</t>
+          <t>80,93%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,38; 87,59</t>
+          <t>62,3; 86,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,84; 86,91</t>
+          <t>57,82; 85,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,62; 89,55</t>
+          <t>75,62; 95,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,73; 89,15</t>
+          <t>74,84; 95,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,26; 87,26</t>
+          <t>71,47; 89,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,87; 86,34</t>
+          <t>68,3; 88,44</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>77,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,68%</t>
+          <t>60,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,13%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>67,68%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,48; 81,44</t>
+          <t>61,97; 89,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61,2; 81,52</t>
+          <t>61,24; 89,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,88; 67,99</t>
+          <t>44,55; 74,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,33; 68,29</t>
+          <t>44,92; 74,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,97; 70,97</t>
+          <t>57,09; 77,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,33; 71,47</t>
+          <t>56,71; 77,28</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>88,22%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,69; 89,75</t>
+          <t>78,92; 91,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>81,93; 90,49</t>
+          <t>77,99; 91,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,5; 89,45</t>
+          <t>85,7; 92,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,88; 89,73</t>
+          <t>85,69; 92,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,19; 88,8</t>
+          <t>84,53; 91,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,51; 89,29</t>
+          <t>84,22; 91,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>80645</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>99827</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112316</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>127953</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>192962</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>227781</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>69408; 86113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85169; 107024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>101690; 117565</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>116062; 134002</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>176562; 201009</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>208216; 237720</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>117824</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>144420</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>118204</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146586</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>236028</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>291005</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>73289; 136829</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88425; 168742</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>102162; 128141</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>124427; 158582</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>170095; 258794</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>206742; 320159</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>130397</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151045</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>210945</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>261254</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>341343</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>412299</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>117727; 137453</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>136256; 159291</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>200684; 215399</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>250042; 264071</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>326680; 350214</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>394927; 420615</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>149164</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>172765</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>181769</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>207271</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>330933</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>380035</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>135155; 157307</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>158555; 180182</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>171876; 187672</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>196199; 214060</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>315328; 341476</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>362291; 391492</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>107814</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>119484</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91091</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>101953</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>198905</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>221437</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86530; 120073</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>91023; 135085</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>78249; 99003</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>86961; 111089</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>173219; 216080</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>186891; 241982</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>69777</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>84117</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>64258</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>134035</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>167118</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55917; 80547</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>66944; 97466</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>47677; 79700</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>61817; 102717</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>112612; 152761</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>140034; 190817</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>638.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>655623</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>771656</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>778583</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>928018</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1434205</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1699675</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>596052; 687289</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>695083; 812205</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>743899; 803581</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>887214; 959105</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1372260; 1478869</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1622651; 1756250</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>